--- a/Data/whole_blood_analysis.xlsx
+++ b/Data/whole_blood_analysis.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t xml:space="preserve">Sujet</t>
+  </si>
   <si>
     <t xml:space="preserve">A1</t>
   </si>
@@ -36,6 +39,45 @@
   </si>
   <si>
     <t xml:space="preserve">D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neutrophils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymphocytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monocytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eosinophile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basophil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platelets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hemoglobin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hematocrit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCHC</t>
   </si>
 </sst>
 </file>
@@ -392,342 +434,384 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="n">
         <v>6080</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>6870</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>6795</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>6760</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>5240</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>5675</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>4090</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>3665</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
         <v>41.9</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>58.1</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>53.85</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>48.25</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>47</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>48.35</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>47.75</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>43.5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="n">
         <v>42.45</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>26.85</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>36.85</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>42.75</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>38.45</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>37.8</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>36.95</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>41.05</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="n">
         <v>10.45</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>9.05</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>7.3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>6.15</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>5.9</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>6.25</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>12</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>12.15</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="n">
         <v>4.45</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>5.2</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>1.55</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>2.25</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>7.6</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>6.7</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>2.1</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>2.05</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="n">
         <v>0.75</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>0.8</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.45</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.6</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>1.05</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.9</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>1.2</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>1.25</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="n">
         <v>201.5</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>209.5</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>261.5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>271.5</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>206.5</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>224</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>252.5</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>249.5</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="n">
         <v>4.82</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>5.195</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>5.66</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>5.9</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>4.745</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>4.72</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>5.01</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>4.81</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="n">
         <v>14.4</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>13.5</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>15.3</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>16.1</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>14.5</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>14.6</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>13.5</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>12.9</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n">
         <v>86</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>83.35</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>79.6</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>78.1</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>88.95</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>87.3</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>82.3</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>81.8</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n">
         <v>41.45</v>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>38.4</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>45.05</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>46.1</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>42.2</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>41.2</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>39.6</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>37.6</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n">
         <v>29.8755186721992</v>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>25.9865255052935</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>27.0318021201413</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>27.2881355932203</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>30.5584826132771</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>30.9322033898305</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>26.9461077844311</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>26.8191268191268</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="n">
         <v>34.7406513872135</v>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>35.15625</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>33.9622641509434</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>34.9240780911063</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>34.3601895734597</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>35.4368932038835</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>34.0909090909091</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>34.3085106382979</v>
       </c>
     </row>
